--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3839944.348110812</v>
+        <v>3837692.268399605</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>313.073874897297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>143.0659977617375</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.817218682479</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,19 +871,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>158.0466716610837</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>163.4723387335439</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>55.45354938846239</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>180.7169940972981</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>165.7780485744464</v>
+        <v>9.595802811127321</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>177.2776744015467</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>71.68269007697916</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>63.72703424640825</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>26.05155675490728</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576182</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428209</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>75.0888690599473</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576176</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>147.6895341487378</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634822</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,10 +2138,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,16 +3430,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>113.6427030833208</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1506.36381994936</v>
+        <v>1540.864437266279</v>
       </c>
       <c r="C2" t="n">
-        <v>1137.401303008948</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="D2" t="n">
-        <v>1137.401303008948</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E2" t="n">
-        <v>1137.401303008948</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520487</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250373</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X2" t="n">
-        <v>2283.102991989293</v>
+        <v>1927.464277330401</v>
       </c>
       <c r="Y2" t="n">
-        <v>1892.963660013481</v>
+        <v>1927.464277330401</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811102</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999832</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387319</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332764</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601614</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927795</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064709</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266132</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>361.3151575124868</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>361.3151575124868</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242374</v>
       </c>
       <c r="U4" t="n">
-        <v>1354.198945796882</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V4" t="n">
-        <v>1099.514457590995</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="W4" t="n">
-        <v>810.0972875540343</v>
+        <v>845.4915543310567</v>
       </c>
       <c r="X4" t="n">
-        <v>582.107736656017</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y4" t="n">
-        <v>361.3151575124868</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1844.338003964587</v>
+        <v>1628.178203944121</v>
       </c>
       <c r="C5" t="n">
-        <v>1475.375487024175</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1117.109788417425</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1117.109788417425</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>706.1238836278173</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>291.0514334728138</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4586,7 +4586,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4598,19 +4598,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2994.5429342656</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X5" t="n">
-        <v>2621.07717600452</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y5" t="n">
-        <v>2230.937844028709</v>
+        <v>2014.778044008243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1161.740577577775</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>994.2880032601528</v>
+        <v>1092.298121480354</v>
       </c>
       <c r="X7" t="n">
-        <v>994.2880032601528</v>
+        <v>864.3085705823368</v>
       </c>
       <c r="Y7" t="n">
-        <v>994.2880032601528</v>
+        <v>643.5159914388066</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1811.579746109089</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1442.617229168677</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="D8" t="n">
-        <v>1084.351530561927</v>
+        <v>584.6815723082761</v>
       </c>
       <c r="E8" t="n">
-        <v>698.5632779636826</v>
+        <v>198.8933197100319</v>
       </c>
       <c r="F8" t="n">
-        <v>287.577373174075</v>
+        <v>191.9478189608284</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>180.915772846229</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410102</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410102</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2588.318918149022</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2198.179586173211</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4875,7 +4875,7 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,16 +4887,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1862.923806425454</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1573.820939551098</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1319.136451345211</v>
+        <v>1300.279904748355</v>
       </c>
       <c r="W10" t="n">
-        <v>1029.71928130825</v>
+        <v>1010.862734711394</v>
       </c>
       <c r="X10" t="n">
-        <v>1029.71928130825</v>
+        <v>782.8731838133765</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>562.0806046698464</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468472</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969303</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,16 +5349,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
@@ -5367,16 +5367,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192639</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703773</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969296</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797182</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5768,34 +5768,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,34 +6686,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,13 +6953,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,73 +7148,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>599.6019060180517</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7497,19 +7497,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7731,22 +7731,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7840,16 +7840,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-1.612932010175427e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>150.6207863290899</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891647</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>138.4949402405064</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>112.4047682534902</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>34.97276993489153</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>637127.5500949888</v>
+        <v>637127.5500949885</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>637127.5500949887</v>
+        <v>637127.5500949885</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>637127.5500949888</v>
+        <v>637127.5500949887</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176755</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176758</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="F2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="G2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="H2" t="n">
         <v>786967.9346977555</v>
       </c>
-      <c r="H2" t="n">
-        <v>786967.9346977557</v>
-      </c>
       <c r="I2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977554</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="M2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="P2" t="n">
         <v>786967.9346977557</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.408292380473009e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.9549531693</v>
       </c>
       <c r="C4" t="n">
         <v>91573.95495316939</v>
@@ -26424,34 +26424,34 @@
         <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181803</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181808</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181806</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181805</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.9201818181</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="K4" t="n">
+        <v>12386.92018181813</v>
+      </c>
+      <c r="L4" t="n">
         <v>12386.92018181815</v>
       </c>
-      <c r="L4" t="n">
-        <v>12386.92018181813</v>
-      </c>
       <c r="M4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26482,7 +26482,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-727736.9156244794</v>
+        <v>-727736.9156244802</v>
       </c>
       <c r="C6" t="n">
-        <v>601007.8301031133</v>
+        <v>601007.8301031135</v>
       </c>
       <c r="D6" t="n">
-        <v>601007.8301031131</v>
+        <v>601007.8301031135</v>
       </c>
       <c r="E6" t="n">
-        <v>348046.0228846751</v>
+        <v>348011.2849592394</v>
       </c>
       <c r="F6" t="n">
-        <v>673458.4846920301</v>
+        <v>673423.7467665947</v>
       </c>
       <c r="G6" t="n">
-        <v>673458.48469203</v>
+        <v>673423.7467665951</v>
       </c>
       <c r="H6" t="n">
-        <v>673458.4846920308</v>
+        <v>673423.7467665947</v>
       </c>
       <c r="I6" t="n">
-        <v>673458.4846920308</v>
+        <v>673423.7467665948</v>
       </c>
       <c r="J6" t="n">
-        <v>455927.2822947532</v>
+        <v>455892.5443693175</v>
       </c>
       <c r="K6" t="n">
-        <v>673458.4846920305</v>
+        <v>673423.7467665946</v>
       </c>
       <c r="L6" t="n">
-        <v>673458.4846920307</v>
+        <v>673423.7467665947</v>
       </c>
       <c r="M6" t="n">
-        <v>588403.4567565185</v>
+        <v>588368.7188310829</v>
       </c>
       <c r="N6" t="n">
-        <v>673458.4846920304</v>
+        <v>673423.7467665948</v>
       </c>
       <c r="O6" t="n">
-        <v>673458.4846920308</v>
+        <v>673423.7467665953</v>
       </c>
       <c r="P6" t="n">
-        <v>673458.4846920306</v>
+        <v>673423.7467665949</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,31 +26787,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.006145155996092e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.006145155996092e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>93.80217084441443</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>226.6651029167315</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>128.1651665445291</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>62.23731665549323</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>309.8193423825452</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>113.8907702900223</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>120.7449497621446</v>
+        <v>276.9271955254637</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>233.6440512519067</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>222.9250743103413</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>155.8219150297609</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>226.0860865689207</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.006145155996092e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-8.006145155996092e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.519424586149398e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.672078567559044e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28858,10 +28858,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>279.2419622547055</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>164.285322933819</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485292</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,10 +34363,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>140.6875824748314</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121313</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>25.7309431539448</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
